--- a/tests/data/demonstracoes_filtered.xlsx
+++ b/tests/data/demonstracoes_filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtsraposo/dev/central_balancos_py/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EEABA9-6362-ED48-A08F-66D314C331C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9FEC11-22C8-204C-A751-44C941F91E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demonstracoes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>cnpj</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>APPLE</t>
+  </si>
+  <si>
+    <t>Balanço Patrimonial (BP)</t>
+  </si>
+  <si>
+    <t>Demonstração do Resultado do Exercício (DRE)</t>
   </si>
 </sst>
 </file>
@@ -150,7 +156,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -161,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,7 +520,7 @@
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -532,7 +541,9 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
@@ -554,7 +565,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>17</v>
@@ -573,9 +584,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -590,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02570F39-5765-8A48-AF1E-6A2CB69AE55D}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
